--- a/sotu_summary_by_prez.xlsx
+++ b/sotu_summary_by_prez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e7bb2393f2f09c0/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9A2F9AA-61D2-42F9-8245-5D2204D1B1E8}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCC8082A-7019-476C-881B-DC6431BA08E8}"/>
   <bookViews>
-    <workbookView xWindow="11316" yWindow="3384" windowWidth="17688" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="1656" windowWidth="17352" windowHeight="13536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explainer" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
   <si>
     <t>prez</t>
   </si>
@@ -167,6 +167,24 @@
   <si>
     <t>wilson</t>
   </si>
+  <si>
+    <t>Charles Becker</t>
+  </si>
+  <si>
+    <t>Sonoma State University</t>
+  </si>
+  <si>
+    <t>BA Economics, 2019</t>
+  </si>
+  <si>
+    <t>c.l.becker@outlook.com</t>
+  </si>
+  <si>
+    <t>(415)302-5219</t>
+  </si>
+  <si>
+    <t>https://github.com/chasbecker</t>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -290,6 +308,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -591,7 +616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -634,8 +659,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -644,8 +670,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -679,6 +706,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -691,7 +719,11 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -701,11 +733,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -35533,15 +35561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -35556,8 +35584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="373380" y="220980"/>
-          <a:ext cx="7498080" cy="4709160"/>
+          <a:off x="83820" y="662940"/>
+          <a:ext cx="7658100" cy="4709160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35613,7 +35641,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t>.  Yes, very naive, but this output comes from a data infrastructure that may be of greater value in the hands of a more knowledgeable investigator.</a:t>
+            <a:t>.  Yes, very naive, but this output comes from a data infrastructure that may be of greater value to a more knowledgeable investigator.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -35622,7 +35650,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t>To view, click the "Summary" tab below.</a:t>
+            <a:t>The plotted data is xy_ratio (in this case, "I/we" or "singular/plural" ratio) on the y-axis vs year on the x-axis. To view, click the "Summary" tab below.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -37275,7 +37303,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="prez"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="year"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="xy_ratio" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="xy_ratio" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37578,14 +37606,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C79704-49CD-4875-BA33-AA8545C545FA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{ADD9D3F9-AE67-44C6-8DB1-C67317A83B61}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A8EEB7EF-DB83-4E84-81CD-490E365A0314}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -41113,11 +41174,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:Q234">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISEVEN($Q2)</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISODD($Q2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>ISEVEN($Q2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sotu_summary_by_prez.xlsx
+++ b/sotu_summary_by_prez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e7bb2393f2f09c0/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCC8082A-7019-476C-881B-DC6431BA08E8}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B930F3CC-4358-4478-B377-4026F075981D}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1656" windowWidth="17352" windowHeight="13536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12828" yWindow="2004" windowWidth="17352" windowHeight="13536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explainer" sheetId="2" r:id="rId1"/>
@@ -719,6 +719,9 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -731,9 +734,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -37303,7 +37303,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="prez"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="year"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="xy_ratio" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="xy_ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37608,7 +37608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C79704-49CD-4875-BA33-AA8545C545FA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41174,10 +41174,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:Q234">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>ISODD($Q2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>ISEVEN($Q2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sotu_summary_by_prez.xlsx
+++ b/sotu_summary_by_prez.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e7bb2393f2f09c0/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e7bb2393f2f09c0/Desktop/DesktopStuff/ExcelCrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B930F3CC-4358-4478-B377-4026F075981D}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{2D478220-2ACD-4356-BCC6-94C17576E99F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B59D608-C15F-4DE1-93D4-B6B96A6D507C}"/>
   <bookViews>
-    <workbookView xWindow="12828" yWindow="2004" windowWidth="17352" windowHeight="13536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1800" windowWidth="21660" windowHeight="15252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Explainer" sheetId="2" r:id="rId1"/>
-    <sheet name="Summary" sheetId="1" r:id="rId2"/>
+    <sheet name="About" sheetId="2" r:id="rId1"/>
+    <sheet name="FDR" sheetId="3" r:id="rId2"/>
+    <sheet name="AllPrez" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="unempl_1934">FDR!$D$2</definedName>
+    <definedName name="xy_1934">FDR!$C$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="59">
   <si>
     <t>prez</t>
   </si>
@@ -185,15 +190,40 @@
   <si>
     <t>https://github.com/chasbecker</t>
   </si>
+  <si>
+    <t>"xy_ratio" is the ratio of first person singular pronouns</t>
+  </si>
+  <si>
+    <t>to first person plural pronouns.</t>
+  </si>
+  <si>
+    <t>(I+me+my+mine) / (we+us+our+ours)</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>norm_pronoun</t>
+  </si>
+  <si>
+    <t>norm_unemploy</t>
+  </si>
+  <si>
+    <t>https://www.thebalance.com/unemployment-rate-by-year-3305506</t>
+  </si>
+  <si>
+    <t>Unemployment rate data from:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -315,6 +345,11 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -500,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -615,6 +650,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -661,7 +740,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,6 +750,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -717,7 +805,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00000"/>
     </dxf>
@@ -732,6 +820,163 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -762,7 +1007,81 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FDR</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>"I/we" Ratio vs Unemployment</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Normalized to 1934</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -771,9 +1090,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Normalized Unemployment</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -795,42 +1119,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$2:$B$5</c:f>
+              <c:f>FDR!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1797</c:v>
+                  <c:v>1934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1798</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1799</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1800</c:v>
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$2:$C$5</c:f>
+              <c:f>FDR!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.74074074074074003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29787234042553101</c:v>
+                  <c:v>0.92626728110599088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86363636363636298</c:v>
+                  <c:v>0.77880184331797242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.6589861751152073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87557603686635943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79262672811059898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67281105990783407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45622119815668205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21658986175115208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.755760368663594E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5299539170506916E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.755760368663594E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +1210,134 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-01E8-4DF9-81B3-53E39D902516}"/>
+              <c16:uniqueId val="{00000002-FBCD-4B8A-8601-178C36C81C67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Normalized I/we</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FDR!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FDR!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98823529411764599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.157894736842104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1506849315068479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20689655172413601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20689655172413601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24242424242424199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19858156028368781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.418079096045196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67326732673267198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21201413427561799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBCD-4B8A-8601-178C36C81C67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -850,15 +1349,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="811094024"/>
-        <c:axId val="554987672"/>
+        <c:axId val="780172248"/>
+        <c:axId val="780170936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="811094024"/>
+        <c:axId val="780172248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1800"/>
-          <c:min val="1797"/>
+          <c:max val="1945"/>
+          <c:min val="1934"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -913,12 +1412,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554987672"/>
+        <c:crossAx val="780170936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554987672"/>
+        <c:axId val="780170936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +1438,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -975,7 +1475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="811094024"/>
+        <c:crossAx val="780172248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -987,6 +1487,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1078,7 +1609,314 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$50:$B$55</c:f>
+              <c:f>AllPrez!$B$42:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AllPrez!$C$42:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.48550724637681097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37671232876712302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35356200527704401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36330935251798502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.233236151603498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.371428571428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.311428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.450928381962864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A12-4805-8D2D-CC293AEBD49A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="811080904"/>
+        <c:axId val="811076312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811080904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+          <c:min val="1993"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811076312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="811076312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811080904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AllPrez!$B$50:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1105,7 +1943,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$50:$C$55</c:f>
+              <c:f>AllPrez!$C$50:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1326,7 +2164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1373,7 +2211,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$56:$B$64</c:f>
+              <c:f>AllPrez!$B$56:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1409,7 +2247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$56:$C$64</c:f>
+              <c:f>AllPrez!$C$56:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1639,7 +2477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1686,7 +2524,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$65:$B$67</c:f>
+              <c:f>AllPrez!$B$65:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1704,7 +2542,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$65:$C$67</c:f>
+              <c:f>AllPrez!$C$65:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1917,7 +2755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1964,7 +2802,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$68:$B$70</c:f>
+              <c:f>AllPrez!$B$68:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1982,7 +2820,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$68:$C$70</c:f>
+              <c:f>AllPrez!$C$68:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2195,7 +3033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2242,7 +3080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$71:$B$78</c:f>
+              <c:f>AllPrez!$B$71:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2275,7 +3113,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$71:$C$78</c:f>
+              <c:f>AllPrez!$C$71:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2502,7 +3340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2549,7 +3387,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$79:$B$80</c:f>
+              <c:f>AllPrez!$B$79:$B$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2564,7 +3402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$79:$C$80</c:f>
+              <c:f>AllPrez!$C$79:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2774,7 +3612,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2821,7 +3659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$81:$B$84</c:f>
+              <c:f>AllPrez!$B$81:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2842,7 +3680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$81:$C$84</c:f>
+              <c:f>AllPrez!$C$81:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3058,7 +3896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3105,7 +3943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$85:$B$88</c:f>
+              <c:f>AllPrez!$B$85:$B$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3126,7 +3964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$85:$C$88</c:f>
+              <c:f>AllPrez!$C$85:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3342,7 +4180,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3389,7 +4227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$89:$B$92</c:f>
+              <c:f>AllPrez!$B$89:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3410,7 +4248,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$89:$C$92</c:f>
+              <c:f>AllPrez!$C$89:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3626,7 +4464,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3673,7 +4511,290 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$93:$B$100</c:f>
+              <c:f>AllPrez!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AllPrez!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.74074074074074003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29787234042553101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86363636363636298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01E8-4DF9-81B3-53E39D902516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="811094024"/>
+        <c:axId val="554987672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811094024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="1797"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554987672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="554987672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="811094024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AllPrez!$B$93:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3706,7 +4827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$93:$C$100</c:f>
+              <c:f>AllPrez!$C$93:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3933,7 +5054,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3980,323 +5101,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$6:$B$9</c:f>
+              <c:f>AllPrez!$B$101:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1825</c:v>
+                  <c:v>1801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1826</c:v>
+                  <c:v>1802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1827</c:v>
+                  <c:v>1803</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1828</c:v>
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$6:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.157894736842105</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4017094017094002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.256410256410256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.170212765957446</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55D2-43B0-9727-FC4DCF934119}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="409975472"/>
-        <c:axId val="409975800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="409975472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1828"/>
-          <c:min val="1825"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409975800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="409975800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409975472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$B$101:$B$108</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1804</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1805</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1806</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1807</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$101:$C$108</c:f>
+              <c:f>AllPrez!$C$101:$C$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4523,7 +5361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4570,7 +5408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$109:$B$112</c:f>
+              <c:f>AllPrez!$B$109:$B$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4591,7 +5429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$109:$C$112</c:f>
+              <c:f>AllPrez!$C$109:$C$112</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4807,7 +5645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4854,7 +5692,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$113:$B$118</c:f>
+              <c:f>AllPrez!$B$113:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4881,7 +5719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$113:$C$118</c:f>
+              <c:f>AllPrez!$C$113:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5102,7 +5940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5149,7 +5987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$119:$B$121</c:f>
+              <c:f>AllPrez!$B$119:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5167,7 +6005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$119:$C$121</c:f>
+              <c:f>AllPrez!$C$119:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5379,7 +6217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5426,7 +6264,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$122:$B$125</c:f>
+              <c:f>AllPrez!$B$122:$B$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5447,7 +6285,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$122:$C$125</c:f>
+              <c:f>AllPrez!$C$122:$C$125</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5662,7 +6500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5709,7 +6547,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$126:$B$133</c:f>
+              <c:f>AllPrez!$B$126:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5742,7 +6580,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$126:$C$133</c:f>
+              <c:f>AllPrez!$C$126:$C$133</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5969,7 +6807,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6016,7 +6854,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$134:$B$137</c:f>
+              <c:f>AllPrez!$B$134:$B$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6037,7 +6875,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$134:$C$137</c:f>
+              <c:f>AllPrez!$C$134:$C$137</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6252,7 +7090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6299,7 +7137,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$138:$B$145</c:f>
+              <c:f>AllPrez!$B$138:$B$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6332,7 +7170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$138:$C$145</c:f>
+              <c:f>AllPrez!$C$138:$C$145</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6559,7 +7397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6606,7 +7444,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$146:$B$149</c:f>
+              <c:f>AllPrez!$B$146:$B$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6627,7 +7465,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$146:$C$149</c:f>
+              <c:f>AllPrez!$C$146:$C$149</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6840,7 +7678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6887,7 +7725,290 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$151:$B$158</c:f>
+              <c:f>AllPrez!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AllPrez!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4017094017094002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.256410256410256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.170212765957446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55D2-43B0-9727-FC4DCF934119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409975472"/>
+        <c:axId val="409975800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409975472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1828"/>
+          <c:min val="1825"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409975800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409975800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409975472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AllPrez!$B$151:$B$158</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6920,7 +8041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$151:$C$158</c:f>
+              <c:f>AllPrez!$C$151:$C$158</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7147,7 +8268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7194,311 +8315,28 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$10:$B$13</c:f>
+              <c:f>AllPrez!$B$159:$B$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1881</c:v>
+                  <c:v>1853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1882</c:v>
+                  <c:v>1854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1883</c:v>
+                  <c:v>1855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1884</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$10:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.96969696969696895</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0384615384615299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1803278688524499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.843373493975903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C79-4243-B681-36C0D17F0E81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="409954808"/>
-        <c:axId val="409949888"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="409954808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1884"/>
-          <c:min val="1881"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409949888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="409949888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409954808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$B$159:$B$162</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1854</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1855</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1856</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$159:$C$162</c:f>
+              <c:f>AllPrez!$C$159:$C$162</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7711,7 +8549,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7758,7 +8596,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$163:$B$166</c:f>
+              <c:f>AllPrez!$B$163:$B$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7779,7 +8617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$163:$C$166</c:f>
+              <c:f>AllPrez!$C$163:$C$166</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7994,7 +8832,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8041,7 +8879,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$167:$B$173</c:f>
+              <c:f>AllPrez!$B$167:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8071,7 +8909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$167:$C$173</c:f>
+              <c:f>AllPrez!$C$167:$C$173</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -8295,7 +9133,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8342,7 +9180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$174:$B$185</c:f>
+              <c:f>AllPrez!$B$174:$B$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8387,7 +9225,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$174:$C$185</c:f>
+              <c:f>AllPrez!$C$174:$C$185</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="12"/>
@@ -8627,7 +9465,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8674,7 +9512,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$186:$B$193</c:f>
+              <c:f>AllPrez!$B$186:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8707,7 +9545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$186:$C$193</c:f>
+              <c:f>AllPrez!$C$186:$C$193</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8934,7 +9772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8981,7 +9819,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$194:$B$197</c:f>
+              <c:f>AllPrez!$B$194:$B$197</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9002,7 +9840,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$194:$C$197</c:f>
+              <c:f>AllPrez!$C$194:$C$197</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9217,7 +10055,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9264,7 +10102,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$199:$B$206</c:f>
+              <c:f>AllPrez!$B$199:$B$206</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9297,7 +10135,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$199:$C$206</c:f>
+              <c:f>AllPrez!$C$199:$C$206</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9524,7 +10362,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9571,7 +10409,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$207:$B$210</c:f>
+              <c:f>AllPrez!$B$207:$B$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9592,7 +10430,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$207:$C$210</c:f>
+              <c:f>AllPrez!$C$207:$C$210</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9808,7 +10646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9855,7 +10693,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$211:$B$214</c:f>
+              <c:f>AllPrez!$B$211:$B$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9876,7 +10714,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$211:$C$214</c:f>
+              <c:f>AllPrez!$C$211:$C$214</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10092,7 +10930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10139,7 +10977,290 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$215:$B$218</c:f>
+              <c:f>AllPrez!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AllPrez!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.96969696969696895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0384615384615299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1803278688524499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.843373493975903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C79-4243-B681-36C0D17F0E81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409954808"/>
+        <c:axId val="409949888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409954808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1884"/>
+          <c:min val="1881"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409949888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409949888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409954808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AllPrez!$B$215:$B$218</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10160,7 +11281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$215:$C$218</c:f>
+              <c:f>AllPrez!$C$215:$C$218</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10376,7 +11497,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10423,323 +11544,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$14:$B$17</c:f>
+              <c:f>AllPrez!$B$219:$B$226</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1857</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1858</c:v>
+                  <c:v>1790</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1859</c:v>
+                  <c:v>1791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1860</c:v>
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1794</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$14:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.51219512195121897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73780487804878003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89814814814814803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82677165354330695</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5D2-4B9D-B487-38CDFA97F911}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="409975472"/>
-        <c:axId val="409970224"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="409975472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1860"/>
-          <c:min val="1857"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409970224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="409970224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409975472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$B$219:$B$226</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1789</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1790</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1791</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1792</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1793</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1794</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1795</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$219:$C$226</c:f>
+              <c:f>AllPrez!$C$219:$C$226</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10966,7 +11804,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11013,7 +11851,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$227:$B$234</c:f>
+              <c:f>AllPrez!$B$227:$B$234</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11046,7 +11884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$227:$C$234</c:f>
+              <c:f>AllPrez!$C$227:$C$234</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11320,7 +12158,290 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$18:$B$21</c:f>
+              <c:f>AllPrez!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AllPrez!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.51219512195121897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73780487804878003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89814814814814803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82677165354330695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5D2-4B9D-B487-38CDFA97F911}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="409975472"/>
+        <c:axId val="409970224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="409975472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1860"/>
+          <c:min val="1857"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409970224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409970224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409975472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AllPrez!$B$18:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11341,7 +12462,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$18:$C$21</c:f>
+              <c:f>AllPrez!$C$18:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11556,7 +12677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11603,7 +12724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$22:$B$29</c:f>
+              <c:f>AllPrez!$B$22:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11636,7 +12757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$22:$C$29</c:f>
+              <c:f>AllPrez!$C$22:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11863,7 +12984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11910,7 +13031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$30:$B$33</c:f>
+              <c:f>AllPrez!$B$30:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11931,7 +13052,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$30:$C$33</c:f>
+              <c:f>AllPrez!$C$30:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12146,7 +13267,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12193,7 +13314,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$B$34:$B$41</c:f>
+              <c:f>AllPrez!$B$34:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12226,7 +13347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$C$34:$C$41</c:f>
+              <c:f>AllPrez!$C$34:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -12398,313 +13519,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="344783624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$B$42:$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$C$42:$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.48550724637681097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37671232876712302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35356200527704401</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36330935251798502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.233236151603498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.371428571428571</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.311428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.450928381962864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A12-4805-8D2D-CC293AEBD49A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="811080904"/>
-        <c:axId val="811076312"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="811080904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2000"/>
-          <c:min val="1993"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="811076312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="811076312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="811080904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14200,6 +15014,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32976,6 +33830,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -35621,11 +36991,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>This workbook</a:t>
+            <a:t>This project started as</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t> presents summary information and scatterplots that are the product of a naive attempt to analyze presidential state of the union addresses for insights on the individuals and times, using two groups of function words: first person </a:t>
+            <a:t> an exercise to practice methods in Python for manipulating free text passages.  That evolved into a naive analysis of presidential state of the union vocabulary.  I used two groups of function words: first person </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" u="sng" baseline="0"/>
@@ -35641,7 +37011,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
-            <a:t>.  Yes, very naive, but this output comes from a data infrastructure that may be of greater value to a more knowledgeable investigator.</a:t>
+            <a:t>.  This is a toy analysis, but the data infrastructure might somehow be of use to others.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -35651,6 +37021,30 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
             <a:t>The plotted data is xy_ratio (in this case, "I/we" or "singular/plural" ratio) on the y-axis vs year on the x-axis. To view, click the "Summary" tab below.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>I found FDR's presidency to be particularly interesting.  It seems to reflect the shift from "I" to "we" following a trauma</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>as described by Pennebaker (doi: 10.1146/annurev.psych.54.101601.145041).  In FDR's case, I speculate that the Recession of 1937-38 led to just such a change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>I also practiced using REST API techniques to perform text sentiment analysis using the MS Azure service.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -35817,6 +37211,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841ACE44-AE30-4CE7-8DEE-889D0D8AA878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -37298,6 +38733,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EE6304C4-1BA9-4A19-926B-DEE26C6D274A}" name="FDR" displayName="FDR" ref="A1:F13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:F13" xr:uid="{2E052E36-57C1-4812-8BC4-5DEA355D55D9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F01559A0-A8D7-4D64-A54F-9DDF2ABD119F}" name="prez" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{91850FED-B83C-4EA4-899A-BB1172F3E669}" name="year" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3C3A4701-59B9-464F-ABE6-F886195B8466}" name="xy_ratio" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A9624C6C-9E30-4DAF-95AA-46047DE5368D}" name="unemployment" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4981809D-908A-42DE-B1AF-79B72683B27E}" name="norm_pronoun" dataDxfId="4">
+      <calculatedColumnFormula>FDR[[#This Row],[xy_ratio]]/xy_1934</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B3C309CE-17B4-4F2F-A30A-F2D48770BFDD}" name="norm_unemploy" dataDxfId="3">
+      <calculatedColumnFormula>FDR[[#This Row],[unemployment]]/unempl_1934</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C234" totalsRowShown="0">
   <autoFilter ref="A1:C234" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
@@ -37651,10 +39105,351 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8158B83F-460F-4D10-B47D-54B594FD7F72}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1934</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.217</v>
+      </c>
+      <c r="E2" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1935</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.494117647058823</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E3" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.98823529411764599</v>
+      </c>
+      <c r="F3" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.92626728110599088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1936</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>1.157894736842104</v>
+      </c>
+      <c r="F4" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.77880184331797242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1937</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E5" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.6589861751152073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1938</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.57534246575342396</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>1.1506849315068479</v>
+      </c>
+      <c r="F6" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.87557603686635943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1939</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.10344827586206801</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E7" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.20689655172413601</v>
+      </c>
+      <c r="F7" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.79262672811059898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1940</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.10344827586206801</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E8" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.20689655172413601</v>
+      </c>
+      <c r="F8" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.67281105990783407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1941</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.12121212121212099</v>
+      </c>
+      <c r="D9" s="11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.24242424242424199</v>
+      </c>
+      <c r="F9" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.45622119815668205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1942</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.9290780141843907E-2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.19858156028368781</v>
+      </c>
+      <c r="F10" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>0.21658986175115208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1943</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.209039548022598</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.418079096045196</v>
+      </c>
+      <c r="F11" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>8.755760368663594E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1944</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.33663366336633599</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.67326732673267198</v>
+      </c>
+      <c r="F12" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>5.5299539170506916E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1945</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.106007067137809</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <f>FDR[[#This Row],[xy_ratio]]/xy_1934</f>
+        <v>0.21201413427561799</v>
+      </c>
+      <c r="F13" s="8">
+        <f>FDR[[#This Row],[unemployment]]/unempl_1934</f>
+        <v>8.755760368663594E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" xr:uid="{A8CBB287-2830-4CBA-965A-68730AE71717}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
